--- a/Document/DataStructure.xlsx
+++ b/Document/DataStructure.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -137,6 +137,128 @@
   </si>
   <si>
     <t>Number of Plugin is loaded.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ImageID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID of image buffer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nWidth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Width of image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nHeight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Height of image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nNumOfChannel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 : Gray
+3 : RGB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number of channels of image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nImageType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type of image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pImgData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pixels data of image.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bLock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true : locked
+false : unlocked</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Image is locked for processing or not.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name of Plugin.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strPluginName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Short description of this plugin.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SystemState</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SYSTEM_STATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>State of system.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -144,7 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,22 +279,6 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -232,29 +338,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -537,285 +640,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E33"/>
+  <dimension ref="B4:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="4.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="73.125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="4.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="73.125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="6">
+      <c r="C8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="6">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="6">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="6">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="6">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="6">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="6">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="6">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="6">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="6">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="6">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="6">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="4">
         <v>16</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="6">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="6">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="4">
         <v>18</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="6">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="4">
         <v>19</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="6">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="4">
         <v>20</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="6">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="4">
         <v>21</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="6">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="4">
         <v>22</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="6">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="4">
         <v>23</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="6">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="4">
         <v>24</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="6">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="4">
         <v>25</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30" s="6">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="4">
         <v>26</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="6">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="4">
         <v>27</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B32" s="6">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="4">
         <v>28</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="6">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="4">
         <v>29</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -829,7 +970,7 @@
   <dimension ref="B4:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -842,453 +983,465 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>16</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>17</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>18</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>19</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>20</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>21</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>22</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>23</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="3">
+      <c r="B28" s="1">
         <v>24</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>25</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="3">
+      <c r="B30" s="1">
         <v>26</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="3">
+      <c r="B31" s="1">
         <v>27</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="3">
+      <c r="B32" s="1">
         <v>28</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>29</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>30</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="3">
+      <c r="B35" s="1">
         <v>31</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="3">
+      <c r="B36" s="1">
         <v>32</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>33</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="3">
+      <c r="B38" s="1">
         <v>34</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="3">
+      <c r="B39" s="1">
         <v>35</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="3">
+      <c r="B40" s="1">
         <v>36</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>37</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="3">
+      <c r="B42" s="1">
         <v>38</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="3">
+      <c r="B43" s="1">
         <v>39</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B44" s="3">
+      <c r="B44" s="1">
         <v>40</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>41</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="3">
+      <c r="B46" s="1">
         <v>42</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B47" s="3">
+      <c r="B47" s="1">
         <v>43</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B48" s="3">
+      <c r="B48" s="1">
         <v>44</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="3">
+      <c r="B49" s="1">
         <v>45</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="3">
+      <c r="B50" s="1">
         <v>46</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B51" s="3">
+      <c r="B51" s="1">
         <v>47</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B52" s="3">
+      <c r="B52" s="1">
         <v>48</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1298,22 +1451,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E33"/>
+  <dimension ref="B4:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="28.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="4.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16" style="3" customWidth="1"/>
+    <col min="6" max="6" width="47.25" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1323,244 +1479,323 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="3">
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="3">
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="3">
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="3">
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="3">
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="3">
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="60" x14ac:dyDescent="0.15">
+      <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="3">
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="3">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="3">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="3">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="4">
         <v>16</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="3">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="3">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="4">
         <v>18</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="3">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="4">
         <v>19</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="3">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="4">
         <v>20</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="3">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="4">
         <v>21</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="3">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="4">
         <v>22</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="3">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="4">
         <v>23</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="3">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="4">
         <v>24</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="3">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="4">
         <v>25</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30" s="3">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="4">
         <v>26</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="3">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="4">
         <v>27</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B32" s="3">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="4">
         <v>28</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="3">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="4">
         <v>29</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1582,301 +1817,301 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="60" x14ac:dyDescent="0.15">
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.15">
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>16</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>18</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>19</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>20</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>21</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>22</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>23</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>24</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>25</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <v>26</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B31" s="6">
+      <c r="B31" s="4">
         <v>27</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B32" s="6">
+      <c r="B32" s="4">
         <v>28</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
